--- a/medicine/Enfance/Christine_Morault/Christine_Morault.xlsx
+++ b/medicine/Enfance/Christine_Morault/Christine_Morault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christine Morault (née le 22 août 1952 à Nantes[1]) est cofondatrice et directrice éditoriale des éditions MeMo, qui édite de la littérature de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christine Morault (née le 22 août 1952 à Nantes) est cofondatrice et directrice éditoriale des éditions MeMo, qui édite de la littérature de jeunesse.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle suit des études d'art à Paris, puis voyage pendant plusieurs années (États-Unis et Amérique du Sud). 
-En 1993, elle fonde avec Yves Mestrallet les éditions MeMo, basées à Nantes[2],[3],[4].
-Les éditions MeMo sont spécialisés dans les albums illustrés pour les plus jeunes, qu'ils soient d'avant ou maintenant[5],[6],[7],[8],[9].
+En 1993, elle fonde avec Yves Mestrallet les éditions MeMo, basées à Nantes.
+Les éditions MeMo sont spécialisés dans les albums illustrés pour les plus jeunes, qu'ils soient d'avant ou maintenant.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Édition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les éditions MeMo ont édité de nombreuses œuvres[10],[11],[12], mêlant création contemporaines, rééditions du patrimoine (notamment nord-américain et tchèque) et ouvrages monographiques sur des artistes du livre pour enfants. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les éditions MeMo ont édité de nombreuses œuvres mêlant création contemporaines, rééditions du patrimoine (notamment nord-américain et tchèque) et ouvrages monographiques sur des artistes du livre pour enfants. 
 </t>
         </is>
       </c>
